--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278003.340331671</v>
+        <v>1333811.171611487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6784883.034241362</v>
+        <v>6791196.166009824</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>325.16745234556</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>251.2961070960041</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.842270233636686</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>67.22683568933304</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>337.4437351164529</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>308.4779682808547</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.09580736876525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.5079000456647</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>400.8735973629131</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>43.19699457911749</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>383.6164702094812</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>412.2077022164165</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>35.51678257079428</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>168.6160409848431</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454375</v>
       </c>
       <c r="C14" t="n">
-        <v>165.7499153537896</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>94.21878984361615</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>19.80087630034372</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,16 +1853,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>155.577622560263</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074784</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4556968337268</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>33.08339867820281</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,10 +2239,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>111.9183464525221</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2482,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946038</v>
       </c>
       <c r="U25" t="n">
-        <v>252.7803979867311</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>33.28996520190781</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170512</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068461</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>31.24391673888129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3272,13 +3272,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629701</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>141.7034552100809</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340024</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,10 +3724,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>102.2146311366279</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>67.84972440587316</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>240.2737862279059</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4037,7 +4037,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430779</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4138,22 +4138,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>129.0617197611624</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>90.30617524481494</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1200.821019354833</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>762.6785465382559</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.207393204728</v>
+        <v>326.7687617127004</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>72.93431010057498</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805648</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805648</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805648</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805648</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960776</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2035.406713540087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1627.12058983974</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064437</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.732682994019</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.732682994019</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.732682994019</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.732682994019</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>951.4583911238244</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>778.8966796070494</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>613.0186868085721</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2453.503348485463</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2175.070347738569</v>
       </c>
       <c r="V4" t="n">
-        <v>1629.277535444727</v>
+        <v>1888.114839608999</v>
       </c>
       <c r="W4" t="n">
-        <v>1357.251131031019</v>
+        <v>1616.088435195291</v>
       </c>
       <c r="X4" t="n">
-        <v>1111.859376364431</v>
+        <v>1370.696680528703</v>
       </c>
       <c r="Y4" t="n">
-        <v>884.4397056785397</v>
+        <v>1143.277009842812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.1887779922017</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1384.774472177456</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.4883484771095</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.157025666709</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.765271000121</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1368.425963492738</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761611</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506057</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890089</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752942</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743886</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1214.390006873483</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1214.390006873483</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1214.390006873483</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1669.442708172577</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1669.442708172577</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172577</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925634</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925634</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925634</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377071</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956382</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296439</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230021</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897028</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842769</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842769</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>853.9699746442907</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>681.4082631275156</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>515.5302703290383</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>345.7722665797756</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>169.0652125415318</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232025</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.614203690258</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>996.614203690258</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.89710409096</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061302</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925634</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178739</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.20826404917</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.20826404917</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.20826404917</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1045.788593363278</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.87917085155</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034974</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209418</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
         <v>787.680751987495</v>
@@ -5039,28 +5039,28 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112634</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457494</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336458</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
         <v>1102.064021433509</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.891962983371</v>
+        <v>863.330251466596</v>
       </c>
       <c r="C13" t="n">
-        <v>863.3302514665962</v>
+        <v>863.330251466596</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681189</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E13" t="n">
         <v>527.694254918856</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.548411468546</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.522007054838</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.13025238825</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.710581702358</v>
+        <v>1055.148870185583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
@@ -5267,7 +5267,7 @@
         <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397517</v>
@@ -5276,25 +5276,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933974</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2328.843778144525</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3454.574761580972</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>4434.754428151279</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5312,7 +5312,7 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
         <v>3506.385025774511</v>
@@ -5364,13 +5364,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3006880091987</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C16" t="n">
-        <v>697.7389764924236</v>
+        <v>837.6411508020491</v>
       </c>
       <c r="D16" t="n">
-        <v>531.8609836939463</v>
+        <v>671.7631580035718</v>
       </c>
       <c r="E16" t="n">
-        <v>362.1029799446836</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F16" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2618.225091792383</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2372.345645370838</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2093.912644623943</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V16" t="n">
-        <v>1806.957136494374</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1534.930732080665</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X16" t="n">
-        <v>1289.538977414078</v>
+        <v>1429.441151723703</v>
       </c>
       <c r="Y16" t="n">
-        <v>1062.119306728186</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5498,43 @@
         <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847304</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5549,7 +5549,7 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
         <v>3506.385025774511</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
         <v>774.6703022412713</v>
@@ -5701,10 +5701,10 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
@@ -5713,10 +5713,10 @@
         <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162926</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>600.6143099101009</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>199.2164785333645</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
         <v>96.73597668111518</v>
@@ -5762,40 +5762,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580466</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412715</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427942</v>
+        <v>784.811992804099</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935316</v>
+        <v>615.0539890548362</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552877</v>
+        <v>438.3469350165924</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>834.8539430951545</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>662.2922315783794</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2058.465899709899</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1771.510391580329</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.483987166621</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1254.092232500033</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1026.672561814142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.578225095767</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>777.016513578992</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805147</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E28" t="n">
-        <v>441.380517031252</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,16 +6646,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406516</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024078</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282355</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282355</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771609</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6944,19 +6944,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1554751127508</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>809.5937635959758</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D37" t="n">
-        <v>643.7157707974984</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E37" t="n">
-        <v>473.9577670482357</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127508</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7202,22 +7202,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7491,19 +7491,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W43" t="n">
-        <v>1741.9224085948</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.110983242321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7685,13 +7685,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937659</v>
+        <v>1057.146432354983</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769908</v>
+        <v>884.5847208382078</v>
       </c>
       <c r="D46" t="n">
-        <v>451.8971520785134</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E46" t="n">
-        <v>282.1391483292507</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354714</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006607</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745681</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955481</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113126</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878953</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.26126017695</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755405</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.94881300851</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878941</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.966900465232</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798645</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.155475112753</v>
+        <v>1248.96505107397</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054324</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.8179728135101</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.214816986648</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314085</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314084</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314085</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,19 +8611,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314085</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>329.5786872734362</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>406.105460509576</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.14457787892974</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.3810530784678</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>248.5691704774796</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>56.5294329941897</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="C14" t="n">
-        <v>268.0111327346213</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.43016517136714</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>268.0111327346213</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>184.7831561774891</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>49.73195639979855</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U25" t="n">
-        <v>22.86827275269462</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>56.52943299419015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.23652828778046</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>140.7232059832937</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.146865729423354</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>35.1574931093301</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>84.6338082530464</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>595894.1984748006</v>
+        <v>597838.051505138</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>595894.1984748006</v>
+        <v>598388.498886334</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>596256.759431174</v>
+        <v>598388.498886334</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568970.9897883239</v>
+        <v>568970.9897883238</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>592982.2157307975</v>
+        <v>592982.2157307976</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287655</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287654</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348495.7579287656</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
+        <v>328590.5336815896</v>
+      </c>
+      <c r="F2" t="n">
         <v>328590.5336815898</v>
       </c>
-      <c r="F2" t="n">
-        <v>328590.5336815895</v>
-      </c>
       <c r="G2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815897</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
@@ -26338,7 +26338,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="L2" t="n">
         <v>342457.4296892789</v>
@@ -26350,10 +26350,10 @@
         <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892791</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.256503903</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390653</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200241</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520276</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784505</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509679</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104679</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971964</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414879</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049263</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846964</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28420.57073327783</v>
+        <v>-62030.01843047587</v>
       </c>
       <c r="C6" t="n">
-        <v>113770.7299264322</v>
+        <v>134811.8357679659</v>
       </c>
       <c r="D6" t="n">
-        <v>108367.9175668054</v>
+        <v>152152.3801418724</v>
       </c>
       <c r="E6" t="n">
-        <v>17603.51351126633</v>
+        <v>79591.17349838257</v>
       </c>
       <c r="F6" t="n">
-        <v>241402.8072632937</v>
+        <v>241326.2487084971</v>
       </c>
       <c r="G6" t="n">
-        <v>241402.8072632938</v>
+        <v>241326.248708497</v>
       </c>
       <c r="H6" t="n">
-        <v>241402.8072632938</v>
+        <v>241326.248708497</v>
       </c>
       <c r="I6" t="n">
-        <v>232129.2698801542</v>
+        <v>232106.0455407715</v>
       </c>
       <c r="J6" t="n">
-        <v>139479.5201680035</v>
+        <v>89862.93168799774</v>
       </c>
       <c r="K6" t="n">
-        <v>250493.9855129939</v>
+        <v>236656.752605766</v>
       </c>
       <c r="L6" t="n">
-        <v>241546.374424484</v>
+        <v>250470.7611736111</v>
       </c>
       <c r="M6" t="n">
-        <v>63702.99890252599</v>
+        <v>115480.8165606077</v>
       </c>
       <c r="N6" t="n">
-        <v>250493.9855129937</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="O6" t="n">
-        <v>250493.9855129937</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="P6" t="n">
-        <v>250493.9855129938</v>
+        <v>250470.7611736112</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825311</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825311</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825311</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>178.1408902972836</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>106.3832346317399</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>241.5783817236926</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.8591173589408</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>86.14502017843142</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4730705056277</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.0496666102675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.528674734394</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>3.329665100429963</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>120.7383676453131</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054324</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.8179728135101</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.214816986648</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314085</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314084</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314085</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314085</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>329.5786872734362</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>406.105460509576</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,22 +37859,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38096,22 +38096,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908263</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512979</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
